--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf2-Csf3r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf2-Csf3r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Csf2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,40 +549,40 @@
         <v>0.690236</v>
       </c>
       <c r="I2">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J2">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.118562</v>
+        <v>0.046873</v>
       </c>
       <c r="N2">
-        <v>0.237124</v>
+        <v>0.093746</v>
       </c>
       <c r="O2">
-        <v>0.001230274889889436</v>
+        <v>5.453183174607497E-05</v>
       </c>
       <c r="P2">
-        <v>0.0008205197482072497</v>
+        <v>3.635719593116276E-05</v>
       </c>
       <c r="Q2">
-        <v>0.02727858687733333</v>
+        <v>0.01078447734266666</v>
       </c>
       <c r="R2">
-        <v>0.163671521264</v>
+        <v>0.064706864056</v>
       </c>
       <c r="S2">
-        <v>0.000609747223167008</v>
+        <v>1.165357622780174E-05</v>
       </c>
       <c r="T2">
-        <v>0.000488854632834896</v>
+        <v>8.376885209923147E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -611,10 +611,10 @@
         <v>0.690236</v>
       </c>
       <c r="I3">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J3">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.348526</v>
+        <v>59.174535</v>
       </c>
       <c r="N3">
-        <v>127.045578</v>
+        <v>177.523605</v>
       </c>
       <c r="O3">
-        <v>0.4394353010376842</v>
+        <v>0.06884338075805313</v>
       </c>
       <c r="P3">
-        <v>0.4396155837089646</v>
+        <v>0.06884838275117172</v>
       </c>
       <c r="Q3">
-        <v>9.743492397378667</v>
+        <v>13.61479811342</v>
       </c>
       <c r="R3">
-        <v>87.69143157640799</v>
+        <v>122.53318302078</v>
       </c>
       <c r="S3">
-        <v>0.2177923460612662</v>
+        <v>0.01471198673793488</v>
       </c>
       <c r="T3">
-        <v>0.2619170534677517</v>
+        <v>0.01586302200773088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -673,40 +673,40 @@
         <v>0.690236</v>
       </c>
       <c r="I4">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J4">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.5261563333333333</v>
+        <v>0.1404725</v>
       </c>
       <c r="N4">
-        <v>1.578469</v>
+        <v>0.280945</v>
       </c>
       <c r="O4">
-        <v>0.005459733515429025</v>
+        <v>0.0001634250578147444</v>
       </c>
       <c r="P4">
-        <v>0.005461973425013703</v>
+        <v>0.000108957954588788</v>
       </c>
       <c r="Q4">
-        <v>0.1210573476315556</v>
+        <v>0.03231972550333333</v>
       </c>
       <c r="R4">
-        <v>1.089516128684</v>
+        <v>0.19391835302</v>
       </c>
       <c r="S4">
-        <v>0.002705945945595846</v>
+        <v>3.492430581912571E-05</v>
       </c>
       <c r="T4">
-        <v>0.003254170322009858</v>
+        <v>2.510447395410853E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,10 +735,10 @@
         <v>0.690236</v>
       </c>
       <c r="I5">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J5">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,90 +747,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.37708799999999</v>
+        <v>771.6691283333333</v>
       </c>
       <c r="N5">
-        <v>160.131264</v>
+        <v>2315.007385</v>
       </c>
       <c r="O5">
-        <v>0.5538746905569973</v>
+        <v>0.8977563004269765</v>
       </c>
       <c r="P5">
-        <v>0.5541019231178145</v>
+        <v>0.8978215292229399</v>
       </c>
       <c r="Q5">
-        <v>12.28092923758933</v>
+        <v>177.5446041547622</v>
       </c>
       <c r="R5">
-        <v>110.528363138304</v>
+        <v>1597.90143739286</v>
       </c>
       <c r="S5">
-        <v>0.2745106458118202</v>
+        <v>0.1918525592489028</v>
       </c>
       <c r="T5">
-        <v>0.3301264750430484</v>
+        <v>0.2068627048009446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2341465</v>
+        <v>0.2300786666666667</v>
       </c>
       <c r="H6">
-        <v>0.468293</v>
+        <v>0.690236</v>
       </c>
       <c r="I6">
-        <v>0.5043813149581506</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J6">
-        <v>0.4042134465343553</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.118562</v>
+        <v>28.521999</v>
       </c>
       <c r="N6">
-        <v>0.237124</v>
+        <v>85.56599700000001</v>
       </c>
       <c r="O6">
-        <v>0.001230274889889436</v>
+        <v>0.03318236192540949</v>
       </c>
       <c r="P6">
-        <v>0.0008205197482072497</v>
+        <v>0.03318477287536839</v>
       </c>
       <c r="Q6">
-        <v>0.027760877333</v>
+        <v>6.562303500588</v>
       </c>
       <c r="R6">
-        <v>0.111043509332</v>
+        <v>59.060731505292</v>
       </c>
       <c r="S6">
-        <v>0.0006205276667224275</v>
+        <v>0.007091146065235528</v>
       </c>
       <c r="T6">
-        <v>0.0003316651153723537</v>
+        <v>0.007645942597461527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -859,40 +859,40 @@
         <v>0.468293</v>
       </c>
       <c r="I7">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J7">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.348526</v>
+        <v>0.046873</v>
       </c>
       <c r="N7">
-        <v>127.045578</v>
+        <v>0.093746</v>
       </c>
       <c r="O7">
-        <v>0.4394353010376842</v>
+        <v>5.453183174607497E-05</v>
       </c>
       <c r="P7">
-        <v>0.4396155837089646</v>
+        <v>3.635719593116276E-05</v>
       </c>
       <c r="Q7">
-        <v>9.915759143059001</v>
+        <v>0.0109751488945</v>
       </c>
       <c r="R7">
-        <v>59.49455485835401</v>
+        <v>0.043900595578</v>
       </c>
       <c r="S7">
-        <v>0.2216429549764179</v>
+        <v>1.185961360848889E-05</v>
       </c>
       <c r="T7">
-        <v>0.1776985302412129</v>
+        <v>5.683326725367179E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -921,10 +921,10 @@
         <v>0.468293</v>
       </c>
       <c r="I8">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J8">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5261563333333333</v>
+        <v>59.174535</v>
       </c>
       <c r="N8">
-        <v>1.578469</v>
+        <v>177.523605</v>
       </c>
       <c r="O8">
-        <v>0.005459733515429025</v>
+        <v>0.06884338075805313</v>
       </c>
       <c r="P8">
-        <v>0.005461973425013703</v>
+        <v>0.06884838275117172</v>
       </c>
       <c r="Q8">
-        <v>0.1231976639028333</v>
+        <v>13.8555102593775</v>
       </c>
       <c r="R8">
-        <v>0.7391859834169999</v>
+        <v>83.13306155626501</v>
       </c>
       <c r="S8">
-        <v>0.002753787569833178</v>
+        <v>0.01497209738147766</v>
       </c>
       <c r="T8">
-        <v>0.002207803103003846</v>
+        <v>0.01076232211166371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,40 +983,474 @@
         <v>0.468293</v>
       </c>
       <c r="I9">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J9">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.1404725</v>
+      </c>
+      <c r="N9">
+        <v>0.280945</v>
+      </c>
+      <c r="O9">
+        <v>0.0001634250578147444</v>
+      </c>
+      <c r="P9">
+        <v>0.000108957954588788</v>
+      </c>
+      <c r="Q9">
+        <v>0.03289114422125</v>
+      </c>
+      <c r="R9">
+        <v>0.131564576885</v>
+      </c>
+      <c r="S9">
+        <v>3.554177399821765E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.703221712775246E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.2341465</v>
+      </c>
+      <c r="H10">
+        <v>0.468293</v>
+      </c>
+      <c r="I10">
+        <v>0.2174805655477089</v>
+      </c>
+      <c r="J10">
+        <v>0.1563191709318771</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>53.37708799999999</v>
-      </c>
-      <c r="N9">
-        <v>160.131264</v>
-      </c>
-      <c r="O9">
-        <v>0.5538746905569973</v>
-      </c>
-      <c r="P9">
-        <v>0.5541019231178145</v>
-      </c>
-      <c r="Q9">
-        <v>12.498058335392</v>
-      </c>
-      <c r="R9">
-        <v>74.988350012352</v>
-      </c>
-      <c r="S9">
-        <v>0.2793640447451771</v>
-      </c>
-      <c r="T9">
-        <v>0.2239754480747661</v>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>771.6691283333333</v>
+      </c>
+      <c r="N10">
+        <v>2315.007385</v>
+      </c>
+      <c r="O10">
+        <v>0.8977563004269765</v>
+      </c>
+      <c r="P10">
+        <v>0.8978215292229399</v>
+      </c>
+      <c r="Q10">
+        <v>180.6836255573008</v>
+      </c>
+      <c r="R10">
+        <v>1084.101753343805</v>
+      </c>
+      <c r="S10">
+        <v>0.1952445479408777</v>
+      </c>
+      <c r="T10">
+        <v>0.1403467170929201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.2341465</v>
+      </c>
+      <c r="H11">
+        <v>0.468293</v>
+      </c>
+      <c r="I11">
+        <v>0.2174805655477089</v>
+      </c>
+      <c r="J11">
+        <v>0.1563191709318771</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>28.521999</v>
+      </c>
+      <c r="N11">
+        <v>85.56599700000001</v>
+      </c>
+      <c r="O11">
+        <v>0.03318236192540949</v>
+      </c>
+      <c r="P11">
+        <v>0.03318477287536839</v>
+      </c>
+      <c r="Q11">
+        <v>6.678326238853502</v>
+      </c>
+      <c r="R11">
+        <v>40.069957433121</v>
+      </c>
+      <c r="S11">
+        <v>0.007216518837746817</v>
+      </c>
+      <c r="T11">
+        <v>0.005187416183440231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.83722</v>
+      </c>
+      <c r="I12">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J12">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.046873</v>
+      </c>
+      <c r="N12">
+        <v>0.093746</v>
+      </c>
+      <c r="O12">
+        <v>5.453183174607497E-05</v>
+      </c>
+      <c r="P12">
+        <v>3.635719593116276E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.02870533768666667</v>
+      </c>
+      <c r="R12">
+        <v>0.17223202612</v>
+      </c>
+      <c r="S12">
+        <v>3.101864190978434E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.229698399587243E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.83722</v>
+      </c>
+      <c r="I13">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J13">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>59.174535</v>
+      </c>
+      <c r="N13">
+        <v>177.523605</v>
+      </c>
+      <c r="O13">
+        <v>0.06884338075805313</v>
+      </c>
+      <c r="P13">
+        <v>0.06884838275117172</v>
+      </c>
+      <c r="Q13">
+        <v>36.2388797309</v>
+      </c>
+      <c r="R13">
+        <v>326.1499175781</v>
+      </c>
+      <c r="S13">
+        <v>0.03915929663864059</v>
+      </c>
+      <c r="T13">
+        <v>0.04222303863177713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.83722</v>
+      </c>
+      <c r="I14">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J14">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.1404725</v>
+      </c>
+      <c r="N14">
+        <v>0.280945</v>
+      </c>
+      <c r="O14">
+        <v>0.0001634250578147444</v>
+      </c>
+      <c r="P14">
+        <v>0.000108957954588788</v>
+      </c>
+      <c r="Q14">
+        <v>0.08602629548333333</v>
+      </c>
+      <c r="R14">
+        <v>0.5161577729</v>
+      </c>
+      <c r="S14">
+        <v>9.295897799740108E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.6821263506927E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.83722</v>
+      </c>
+      <c r="I15">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J15">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>771.6691283333333</v>
+      </c>
+      <c r="N15">
+        <v>2315.007385</v>
+      </c>
+      <c r="O15">
+        <v>0.8977563004269765</v>
+      </c>
+      <c r="P15">
+        <v>0.8978215292229399</v>
+      </c>
+      <c r="Q15">
+        <v>472.5753186521889</v>
+      </c>
+      <c r="R15">
+        <v>4253.177867869699</v>
+      </c>
+      <c r="S15">
+        <v>0.510659193237196</v>
+      </c>
+      <c r="T15">
+        <v>0.5506121073290752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.83722</v>
+      </c>
+      <c r="I16">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J16">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>28.521999</v>
+      </c>
+      <c r="N16">
+        <v>85.56599700000001</v>
+      </c>
+      <c r="O16">
+        <v>0.03318236192540949</v>
+      </c>
+      <c r="P16">
+        <v>0.03318477287536839</v>
+      </c>
+      <c r="Q16">
+        <v>17.46706233426</v>
+      </c>
+      <c r="R16">
+        <v>157.20356100834</v>
+      </c>
+      <c r="S16">
+        <v>0.01887469702242714</v>
+      </c>
+      <c r="T16">
+        <v>0.02035141409446663</v>
       </c>
     </row>
   </sheetData>
